--- a/20-excel-based/models/010-base-model-thing.xlsx
+++ b/20-excel-based/models/010-base-model-thing.xlsx
@@ -3,10 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EA7A087-ABFB-4FB0-876A-468CAFEF1C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder (2)\Adrosonic-PIM-Training\20-excel-based\models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C501E213-1E1D-4259-A478-FF835A9AAA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="20790" windowHeight="11820" tabRatio="929" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="929" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dropdownlist" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1922,11 +1927,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AS45"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD45"/>
+      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -2911,9 +2916,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:F5"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>

--- a/20-excel-based/models/010-base-model-thing.xlsx
+++ b/20-excel-based/models/010-base-model-thing.xlsx
@@ -3,10 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EA7A087-ABFB-4FB0-876A-468CAFEF1C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder (2)\Adrosonic-PIM-Training\20-excel-based\models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB49B1A-8357-4073-AF54-30E8D893450E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="20790" windowHeight="11820" tabRatio="929" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="929" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dropdownlist" sheetId="1" state="hidden" r:id="rId1"/>
@@ -127,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="245">
   <si>
     <t>Action</t>
   </si>
@@ -853,6 +858,15 @@
   </si>
   <si>
     <t>Colors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item </t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Any kinds of items</t>
   </si>
 </sst>
 </file>
@@ -1922,11 +1936,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AS45"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD45"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -2909,11 +2923,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:F5"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -2992,6 +3006,17 @@
       </c>
       <c r="F5" t="s">
         <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" t="s">
+        <v>243</v>
+      </c>
+      <c r="F6" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
